--- a/documents/Requirements Analysis Gantt.xlsx
+++ b/documents/Requirements Analysis Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarre\OneDrive\Documents\2019\FYP\Remotomation\initial docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarre\OneDrive\Documents\2019\FYP\Remotomation\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{419BE6EE-C4CE-4E7C-AF7A-502D16005849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD4D9762-491F-4137-B42E-F73E912D9A63}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="8_{419BE6EE-C4CE-4E7C-AF7A-502D16005849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F77AA067-0B8F-485B-8D23-E373171A293F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Remote Automation</t>
   </si>
   <si>
-    <t>Mid-Year</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Thesis paper, poster, video, and presentation to academic team, culminating in Spark Night</t>
   </si>
   <si>
-    <t>Pull github code on anonymous computer to replicate work</t>
-  </si>
-  <si>
     <t>Implement automated scripts via ssh tunnel</t>
   </si>
   <si>
@@ -154,6 +148,27 @@
   </si>
   <si>
     <t>Decide and implement tunnel connection.</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Develop General User Interface (GUI) on Matlab for ease of use</t>
+  </si>
+  <si>
+    <t>Stretch Goals</t>
+  </si>
+  <si>
+    <t>multi person use</t>
+  </si>
+  <si>
+    <t>Portability and adaptability in other lab environments</t>
+  </si>
+  <si>
+    <t>running and executing multiple files and settings, and determining best result thereafter</t>
+  </si>
+  <si>
+    <t>Possible extensions - may opt for several of these, depending on most useful and/or easy.</t>
   </si>
 </sst>
 </file>
@@ -941,7 +956,233 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1446,10 +1687,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF24"/>
+  <dimension ref="B1:AF28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1460,7 +1701,7 @@
     <col min="4" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="18" width="2.77734375" style="1"/>
-    <col min="19" max="19" width="4.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="26" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.88671875" customWidth="1"/>
@@ -1477,7 +1718,7 @@
     </row>
     <row r="2" spans="2:32" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -1510,7 +1751,7 @@
     </row>
     <row r="3" spans="2:32" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -1547,16 +1788,16 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>5</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
@@ -1570,10 +1811,10 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
       <c r="S4" s="53" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
@@ -1587,13 +1828,13 @@
       <c r="AD4" s="32"/>
       <c r="AE4" s="32"/>
       <c r="AF4" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="50"/>
       <c r="C5" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
@@ -1675,10 +1916,10 @@
     </row>
     <row r="6" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B6" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1718,13 +1959,13 @@
     </row>
     <row r="7" spans="2:32" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
@@ -1761,13 +2002,13 @@
     </row>
     <row r="8" spans="2:32" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -1805,10 +2046,10 @@
     <row r="9" spans="2:32" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B9" s="33"/>
       <c r="C9" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1846,10 +2087,10 @@
     <row r="10" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B10" s="33"/>
       <c r="C10" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -1886,16 +2127,16 @@
     </row>
     <row r="11" spans="2:32" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
@@ -1930,13 +2171,13 @@
     <row r="12" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B12" s="33"/>
       <c r="C12" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
@@ -1971,13 +2212,13 @@
     <row r="13" spans="2:32" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B13" s="33"/>
       <c r="C13" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8">
         <v>5</v>
       </c>
       <c r="E13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="13">
         <v>0</v>
@@ -2011,16 +2252,16 @@
     </row>
     <row r="14" spans="2:32" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="B14" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
@@ -2055,10 +2296,10 @@
     <row r="15" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B15" s="33"/>
       <c r="C15" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
@@ -2096,13 +2337,13 @@
     <row r="16" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B16" s="33"/>
       <c r="C16" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -2136,16 +2377,16 @@
     </row>
     <row r="17" spans="2:32" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="B17" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -2180,10 +2421,10 @@
     <row r="18" spans="2:32" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B18" s="37"/>
       <c r="C18" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="8">
         <v>2</v>
@@ -2221,10 +2462,10 @@
     <row r="19" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B19" s="37"/>
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="8">
         <v>2</v>
@@ -2260,13 +2501,13 @@
     <row r="20" spans="2:32" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
       <c r="C20" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8">
         <v>15</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -2298,63 +2539,61 @@
       <c r="AE20" s="35"/>
       <c r="AF20" s="36"/>
     </row>
-    <row r="21" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8">
-        <v>3</v>
-      </c>
-      <c r="F21" s="13">
+    <row r="21" spans="2:32" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="40">
+        <v>16</v>
+      </c>
+      <c r="E21" s="40">
+        <v>4</v>
+      </c>
+      <c r="F21" s="41">
         <v>1</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="36"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="45"/>
     </row>
     <row r="22" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B22" s="37"/>
       <c r="C22" s="19" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D22" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -2382,20 +2621,18 @@
       <c r="AE22" s="35"/>
       <c r="AF22" s="36"/>
     </row>
-    <row r="23" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:32" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B23" s="37"/>
       <c r="C23" s="19" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E23" s="8">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -2423,48 +2660,210 @@
       <c r="AE23" s="35"/>
       <c r="AF23" s="36"/>
     </row>
-    <row r="24" spans="2:32" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B24" s="37"/>
+      <c r="C24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8">
         <v>16</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="40">
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="36"/>
+    </row>
+    <row r="25" spans="2:32" ht="30.6" x14ac:dyDescent="0.35">
+      <c r="B25" s="37"/>
+      <c r="C25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="8">
         <v>16</v>
       </c>
-      <c r="E24" s="40">
-        <v>9</v>
-      </c>
-      <c r="F24" s="41">
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="36"/>
+    </row>
+    <row r="26" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="45"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="36"/>
+    </row>
+    <row r="27" spans="2:32" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B27" s="37"/>
+      <c r="C27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8">
+        <v>20</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="36"/>
+    </row>
+    <row r="28" spans="2:32" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="40">
+        <v>20</v>
+      </c>
+      <c r="E28" s="40">
+        <v>4</v>
+      </c>
+      <c r="F28" s="41">
+        <v>1</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2481,65 +2880,117 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="S4:S5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:R24 T6:AF24">
-    <cfRule type="expression" dxfId="17" priority="81">
+  <conditionalFormatting sqref="G6:R20 T6:AF20 T22:AF28 G22:R28">
+    <cfRule type="expression" dxfId="33" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="83">
+    <cfRule type="expression" dxfId="32" priority="99">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="84">
+    <cfRule type="expression" dxfId="31" priority="100">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="85">
+    <cfRule type="expression" dxfId="30" priority="101">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="86">
+    <cfRule type="expression" dxfId="29" priority="102">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="87">
+    <cfRule type="expression" dxfId="28" priority="103">
       <formula>G$5=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="91">
+    <cfRule type="expression" dxfId="27" priority="107">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="92">
+    <cfRule type="expression" dxfId="26" priority="108">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:AF25">
-    <cfRule type="expression" dxfId="9" priority="82">
+  <conditionalFormatting sqref="B29:AF29">
+    <cfRule type="expression" dxfId="25" priority="98">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:R5 T5:AE5">
-    <cfRule type="expression" dxfId="8" priority="88">
+    <cfRule type="expression" dxfId="24" priority="104">
       <formula>G$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S24">
-    <cfRule type="expression" dxfId="7" priority="101">
+  <conditionalFormatting sqref="S6:S20 S22:S28">
+    <cfRule type="expression" dxfId="23" priority="117">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="102">
+    <cfRule type="expression" dxfId="22" priority="118">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="103">
+    <cfRule type="expression" dxfId="21" priority="119">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="104">
+    <cfRule type="expression" dxfId="20" priority="120">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="105">
+    <cfRule type="expression" dxfId="19" priority="121">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="106">
+    <cfRule type="expression" dxfId="18" priority="122">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="107">
+    <cfRule type="expression" dxfId="17" priority="123">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="108">
+    <cfRule type="expression" dxfId="16" priority="124">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:AF21 G21:R21">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>G$5=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>S$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
